--- a/src/main/java/com/appmanager/qa/testdata/AppManager_TestData.xlsx
+++ b/src/main/java/com/appmanager/qa/testdata/AppManager_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Automation/MyWorkspace1/AppManager/src/main/java/com/appmanager/qa/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/Automation/appmanager/src/main/java/com/appmanager/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB6E0EB-AAD8-0F4B-80E6-EE55AFEA3C85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47768ECC-A04D-8A4C-A06E-011B2CD21195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{C14AC6C9-3CF7-E349-BDDD-1B56650DCD9C}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{C14AC6C9-3CF7-E349-BDDD-1B56650DCD9C}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="1" r:id="rId1"/>
@@ -37,74 +37,74 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Amit</t>
-  </si>
-  <si>
-    <t>Anup</t>
-  </si>
-  <si>
     <t>AutoTest</t>
   </si>
   <si>
-    <t>amit@autotest.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajesh </t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Walter</t>
-  </si>
-  <si>
-    <t>Kalpesh</t>
-  </si>
-  <si>
-    <t>Vishal</t>
-  </si>
-  <si>
-    <t>Moorie</t>
-  </si>
-  <si>
-    <t>Hank</t>
-  </si>
-  <si>
-    <t>anup@autotest.com</t>
-  </si>
-  <si>
-    <t>rajesh@autotest.com</t>
-  </si>
-  <si>
-    <t>kalpesh@autotest.com</t>
-  </si>
-  <si>
-    <t>vishal@autotest.com</t>
-  </si>
-  <si>
-    <t>walter@autotest.com</t>
-  </si>
-  <si>
-    <t>mike@autotest.com</t>
-  </si>
-  <si>
-    <t>moorie@autotest.com</t>
-  </si>
-  <si>
-    <t>hank@autotest.com</t>
-  </si>
-  <si>
-    <t>pinkman</t>
-  </si>
-  <si>
-    <t>pinkman@autotest.com</t>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user10</t>
+  </si>
+  <si>
+    <t>user1@autotest.com</t>
+  </si>
+  <si>
+    <t>user2@autotest.com</t>
+  </si>
+  <si>
+    <t>user3@autotest.com</t>
+  </si>
+  <si>
+    <t>user4@autotest.com</t>
+  </si>
+  <si>
+    <t>user5@autotest.com</t>
+  </si>
+  <si>
+    <t>user6@autotest.com</t>
+  </si>
+  <si>
+    <t>user7@autotest.com</t>
+  </si>
+  <si>
+    <t>user8@autotest.com</t>
+  </si>
+  <si>
+    <t>user9@autotest.com</t>
+  </si>
+  <si>
+    <t>user10@autotest.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +116,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -462,7 +468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F52EBB-FBFC-214C-81BA-C78401DED300}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -482,57 +490,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -540,68 +548,69 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B7E3A645-FC6B-4A4F-8256-6E01BE46F3C9}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{B1586E77-A8A8-5E4D-AC23-72008D31DAD9}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{65F285BF-DFB7-EE4E-B238-79D59C1432BC}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{3F279F0B-41E4-B74F-816F-40E81C8FF1F4}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{E45441D8-C01C-4245-9FAB-221731099CBC}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{4180A590-B2FD-3249-A77B-AFFEB9659D3E}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{A7F33BF8-107F-CA44-B953-0E268EBB4659}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{490CEC1E-FC43-D040-9FB0-435BDEFA1DFD}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{A0F0919D-9E4D-7649-B6E3-D46EA28A6687}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{F86997CD-26B8-AE42-876D-37278336FF75}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{50D8A238-2534-864D-B8BD-BB3B6113261B}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{39C80CCB-A6E2-9241-9A9C-C9CD97FED169}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{CB0081B7-C6A5-884B-B5FA-793D001EE8D5}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{5F75E2E7-76CF-F046-90EB-FE15245AE652}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{86F1832E-AEBF-E448-8660-B55FE48C076B}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{1BAEE647-5206-194F-9BEB-A10999F0A033}"/>
+    <hyperlink ref="C9" r:id="rId9" xr:uid="{70298DE7-12BF-5D40-9D8A-B20B453984C5}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{6586D634-40E5-9141-94DE-1297414C2AA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/appmanager/qa/testdata/AppManager_TestData.xlsx
+++ b/src/main/java/com/appmanager/qa/testdata/AppManager_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tushar/Automation/appmanager/src/main/java/com/appmanager/qa/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47768ECC-A04D-8A4C-A06E-011B2CD21195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4DB4F7-95AA-4547-842F-F80CE4B5E064}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{C14AC6C9-3CF7-E349-BDDD-1B56650DCD9C}"/>
   </bookViews>
@@ -40,36 +40,6 @@
     <t>AutoTest</t>
   </si>
   <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>user5</t>
-  </si>
-  <si>
-    <t>user6</t>
-  </si>
-  <si>
-    <t>user7</t>
-  </si>
-  <si>
-    <t>user8</t>
-  </si>
-  <si>
-    <t>user9</t>
-  </si>
-  <si>
-    <t>user10</t>
-  </si>
-  <si>
     <t>user1@autotest.com</t>
   </si>
   <si>
@@ -98,6 +68,36 @@
   </si>
   <si>
     <t>user10@autotest.com</t>
+  </si>
+  <si>
+    <t>userA</t>
+  </si>
+  <si>
+    <t>userB</t>
+  </si>
+  <si>
+    <t>userC</t>
+  </si>
+  <si>
+    <t>userD</t>
+  </si>
+  <si>
+    <t>userE</t>
+  </si>
+  <si>
+    <t>userF</t>
+  </si>
+  <si>
+    <t>userG</t>
+  </si>
+  <si>
+    <t>userH</t>
+  </si>
+  <si>
+    <t>userI</t>
+  </si>
+  <si>
+    <t>userJ</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,112 +490,112 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
